--- a/07DataPivot/excel_data/나.xlsx
+++ b/07DataPivot/excel_data/나.xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\구채린\Desktop\UiPath\Uipath 예제\9. 데이터 피벗\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA\07DataPivot\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EF526E-D440-4354-8AEE-D1978B853FF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5E18C3-3FDA-4462-AD81-4121B1EE3E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="가" sheetId="3" r:id="rId1"/>
+    <sheet name="Summary" sheetId="4" r:id="rId2"/>
+    <sheet name="나Summary" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="70" r:id="rId5"/>
+    <pivotCache cacheId="74" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>번호</t>
   </si>
@@ -102,6 +104,18 @@
   </si>
   <si>
     <t>FR0DO-715</t>
+  </si>
+  <si>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>(비어 있음)</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>합계 : 금액</t>
   </si>
 </sst>
 </file>
@@ -147,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -164,6 +178,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -179,6 +198,686 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ICT CoC" refreshedDate="45378.620496527779" createdVersion="1" refreshedVersion="6" recordCount="20" xr:uid="{5C918FF5-70FD-4A4F-86E0-F1EADF6F6B14}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="번호" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
+    </cacheField>
+    <cacheField name="품명" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="라이언"/>
+        <s v="튜브"/>
+        <s v="네오"/>
+        <s v="콘"/>
+        <s v="프로도"/>
+        <s v="무지"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="본부" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="WBS번호" numFmtId="49">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="만기일" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="금액" numFmtId="176">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="11758" maxValue="956116"/>
+    </cacheField>
+    <cacheField name="비고" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ICT CoC" refreshedDate="45378.653140393515" createdVersion="1" refreshedVersion="6" recordCount="20" xr:uid="{99BADD3D-FEF6-4961-A077-916D46C7C3C7}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="번호" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
+    </cacheField>
+    <cacheField name="품명" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="라이언"/>
+        <s v="튜브"/>
+        <s v="네오"/>
+        <s v="콘"/>
+        <s v="프로도"/>
+        <s v="무지"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="본부" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="WBS번호" numFmtId="49">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="만기일" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="금액" numFmtId="176">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="11758" maxValue="956116"/>
+    </cacheField>
+    <cacheField name="비고" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="67398"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="903777"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="262583"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="621388"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="457768"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <s v="대구"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="816572"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="652952"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="11758"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="4"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="370562"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="206942"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="3"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="565747"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="924552"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="5"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="760932"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="119737"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="956116"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="314922"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="5"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="673726"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="510106"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="868911"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="67398"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="903777"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="262583"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="621388"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="457768"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <s v="대구"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="816572"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="652952"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="11758"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="4"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="370562"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="206942"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="3"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="565747"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="924552"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="5"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="760932"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="119737"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="956116"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="314922"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="5"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="673726"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="510106"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="868911"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{042DC156-E2E0-4216-A249-16F7D9F3FEDA}" name="Summary" cacheId="74" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="8">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 금액" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{545B5430-DBEF-498D-BE07-2415CAE4F01B}" name="나Summary" cacheId="70" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="8">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 금액" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,10 +1142,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA260FF-204C-4DD1-AC41-2A355D05842D}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>784447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>198893</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2251230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2350193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3653356</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>828330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>10066449</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B32C3C-C821-4E0D-B918-F34D20595E47}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10">
+        <v>784447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10">
+        <v>198893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2251230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2350193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3653356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10">
+        <v>828330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10066449</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4DB9F-EE86-4251-915A-C3F5DAE25342}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10">
+        <v>784447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10">
+        <v>198893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2251230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2350193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3653356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10">
+        <v>828330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10066449</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>

--- a/07DataPivot/excel_data/나.xlsx
+++ b/07DataPivot/excel_data/나.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA\07DataPivot\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4sooh\Documents\UiPath\RPA수업\07DataPivot\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5E18C3-3FDA-4462-AD81-4121B1EE3E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="가" sheetId="3" r:id="rId1"/>
-    <sheet name="Summary" sheetId="4" r:id="rId2"/>
-    <sheet name="나Summary" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="70" r:id="rId5"/>
-    <pivotCache cacheId="74" r:id="rId6"/>
+    <pivotCache cacheId="241" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>번호</t>
   </si>
@@ -107,9 +108,6 @@
   </si>
   <si>
     <t>행 레이블</t>
-  </si>
-  <si>
-    <t>(비어 있음)</t>
   </si>
   <si>
     <t>총합계</t>
@@ -121,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
@@ -201,80 +199,35 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ICT CoC" refreshedDate="45378.620496527779" createdVersion="1" refreshedVersion="6" recordCount="20" xr:uid="{5C918FF5-70FD-4A4F-86E0-F1EADF6F6B14}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="4sooha@naver.com" refreshedDate="45379.949162037039" createdVersion="1" refreshedVersion="5" recordCount="19">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
+    <worksheetSource ref="A1:G20" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="번호" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
     </cacheField>
     <cacheField name="품명" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems count="6">
         <s v="라이언"/>
         <s v="튜브"/>
         <s v="네오"/>
         <s v="콘"/>
         <s v="프로도"/>
         <s v="무지"/>
-        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="본부" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="WBS번호" numFmtId="49">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="만기일" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
     </cacheField>
     <cacheField name="금액" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="11758" maxValue="956116"/>
-    </cacheField>
-    <cacheField name="비고" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ICT CoC" refreshedDate="45378.653140393515" createdVersion="1" refreshedVersion="6" recordCount="20" xr:uid="{99BADD3D-FEF6-4961-A077-916D46C7C3C7}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="번호" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
-    </cacheField>
-    <cacheField name="품명" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
-        <s v="라이언"/>
-        <s v="튜브"/>
-        <s v="네오"/>
-        <s v="콘"/>
-        <s v="프로도"/>
-        <s v="무지"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="본부" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="WBS번호" numFmtId="49">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="만기일" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
-    </cacheField>
-    <cacheField name="금액" numFmtId="176">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="11758" maxValue="956116"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11758" maxValue="956116"/>
     </cacheField>
     <cacheField name="비고" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -289,7 +242,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="19">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -461,206 +414,12 @@
     <n v="868911"/>
     <m/>
   </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
-  <r>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="67398"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="903777"/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="262583"/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="621388"/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="4"/>
-    <s v="인천"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="457768"/>
-    <m/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="5"/>
-    <s v="대구"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="816572"/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="652952"/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="11758"/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="4"/>
-    <s v="부산"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="370562"/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="2"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="206942"/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="3"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="565747"/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="1"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="924552"/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <x v="5"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="760932"/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="119737"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="956116"/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="314922"/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="5"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="673726"/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <x v="3"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="510106"/>
-    <m/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="1"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="868911"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{042DC156-E2E0-4216-A249-16F7D9F3FEDA}" name="Summary" cacheId="74" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Summary" cacheId="241" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" updatedVersion="5" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0" includeNewItemsInFilter="1">
       <extLst>
@@ -670,14 +429,13 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="8">
+      <items count="7">
         <item x="2"/>
         <item x="0"/>
         <item x="5"/>
         <item x="3"/>
         <item x="1"/>
         <item x="4"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
       <extLst>
@@ -700,14 +458,14 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
+    <pivotField numFmtId="14" showAll="0" includeNewItemsInFilter="1">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
+    <pivotField dataField="1" numFmtId="176" showAll="0" includeNewItemsInFilter="1">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -725,7 +483,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -744,9 +502,6 @@
     <i>
       <x v="5"/>
     </i>
-    <i>
-      <x v="6"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -761,120 +516,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{545B5430-DBEF-498D-BE07-2415CAE4F01B}" name="나Summary" cacheId="70" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="8">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="합계 : 금액" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -1142,98 +783,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA260FF-204C-4DD1-AC41-2A355D05842D}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="10">
         <v>784447</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="10">
         <v>198893</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="10">
         <v>2251230</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="10">
         <v>2350193</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="10">
         <v>3653356</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="10">
         <v>828330</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>10066449</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1243,201 +867,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B32C3C-C821-4E0D-B918-F34D20595E47}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10">
-        <v>784447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10">
-        <v>198893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2251230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2350193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3653356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10">
-        <v>828330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10066449</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4DB9F-EE86-4251-915A-C3F5DAE25342}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10">
-        <v>784447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10">
-        <v>198893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2251230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2350193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3653356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10">
-        <v>828330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10066449</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="11.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1481,7 +925,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1501,7 +945,7 @@
         <v>903777</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1521,7 +965,7 @@
         <v>262583</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1541,7 +985,7 @@
         <v>621388</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1561,7 +1005,7 @@
         <v>457768</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1581,7 +1025,7 @@
         <v>816572</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1601,7 +1045,7 @@
         <v>652952</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1621,7 +1065,7 @@
         <v>11758</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1641,7 +1085,7 @@
         <v>370562</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1661,7 +1105,7 @@
         <v>206942</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1681,7 +1125,7 @@
         <v>565747</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1701,7 +1145,7 @@
         <v>924552</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1721,7 +1165,7 @@
         <v>760932</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1741,7 +1185,7 @@
         <v>119737</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1761,7 +1205,7 @@
         <v>956116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1781,7 +1225,7 @@
         <v>314922</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1801,7 +1245,7 @@
         <v>673726</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1821,7 +1265,7 @@
         <v>510106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>29</v>
       </c>
